--- a/grupos/4ALCM - Estadisticos 20202.xlsx
+++ b/grupos/4ALCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="159">
   <si>
     <t>Materia</t>
   </si>
@@ -200,16 +200,16 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
     <t>Ángel Martínez Gerson Hermenegildo</t>
   </si>
   <si>
-    <t>Camarillo Aburto Raymundo</t>
+    <t>Ángel Martínez Noe Cristobal</t>
   </si>
   <si>
     <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Noe Cristobal</t>
   </si>
   <si>
     <t>González Sánchez Rene Aurelio</t>
@@ -4352,19 +4352,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>51.35</v>
+        <v>78.38</v>
       </c>
       <c r="G2">
-        <v>48.65</v>
+        <v>21.62</v>
       </c>
       <c r="H2">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -4384,19 +4384,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>75.68000000000001</v>
+        <v>81.08</v>
       </c>
       <c r="G3">
-        <v>24.32</v>
+        <v>18.92</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -4416,16 +4416,16 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>75.68000000000001</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G4">
-        <v>24.32</v>
+        <v>13.51</v>
       </c>
       <c r="H4">
         <v>8.5</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -4448,19 +4448,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>81.08</v>
+        <v>89.19</v>
       </c>
       <c r="G5">
-        <v>18.92</v>
+        <v>10.81</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4471,28 +4471,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>37</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>86.48999999999999</v>
+        <v>89.19</v>
       </c>
       <c r="G6">
-        <v>13.51</v>
+        <v>10.81</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -4512,19 +4512,19 @@
         <v>37</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>86.48999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="G7">
-        <v>13.51</v>
+        <v>2.7</v>
       </c>
       <c r="H7">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5272,7 +5272,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5302,27 +5302,27 @@
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920151</v>
+        <v>19330051920155</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5330,19 +5330,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920151</v>
+        <v>19330051920155</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -5353,16 +5353,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920303</v>
+        <v>19330051920183</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -5376,19 +5376,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920303</v>
+        <v>19330051920183</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -5399,16 +5399,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920276</v>
+        <v>19330051920151</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -5422,16 +5422,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920159</v>
+        <v>19330051920163</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -5440,144 +5440,6 @@
         <v>59</v>
       </c>
       <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920281</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920163</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920173</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920176</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920175</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920180</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
         <v>5</v>
       </c>
     </row>
